--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>792496.0364430838</v>
+        <v>790060.3995193767</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11528160.74076267</v>
+        <v>11528160.74076268</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>24.6214982250919</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>47.22593971365005</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>56.5837521657736</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559953</v>
       </c>
       <c r="H5" t="n">
-        <v>106.3489655915241</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.85881373760725</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>169.1353206904151</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.0656025585486</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778463</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>75.40931268540169</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>222.1526784153807</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329786</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>238.5624260321019</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1427,7 +1427,7 @@
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>35.86187249378681</v>
+        <v>124.1004521009521</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337144</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>319.4395745411795</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.94516103140406</v>
+        <v>7.018581172448174</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>35.41770597126603</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695618</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060431</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>54.31367585848692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613147</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>86.90598908794104</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695476</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419834099</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389246</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>172.3645574474229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417127</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>145.2857567969028</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560533</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833781</v>
       </c>
       <c r="G43" t="n">
-        <v>51.36569740310225</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="F46" t="n">
-        <v>110.0177171766857</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.041072043026</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>923.9108438165264</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.351887790296</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1326.351887790296</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>1105.559308646766</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>1569.101759311878</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542235</v>
+        <v>1569.101759311878</v>
       </c>
       <c r="D5" t="n">
-        <v>1385.781921542235</v>
+        <v>1210.836060705128</v>
       </c>
       <c r="E5" t="n">
-        <v>999.9936689439905</v>
+        <v>825.0478081068836</v>
       </c>
       <c r="F5" t="n">
-        <v>589.007764154383</v>
+        <v>818.1023073576802</v>
       </c>
       <c r="G5" t="n">
-        <v>173.9353139993795</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546768</v>
+        <v>1955.701599376</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>480.687070124138</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962311</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962311</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>701.4796492676682</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>480.687070124138</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796418</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796418</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>844.171363847817</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1025.819828678057</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1025.819828678057</v>
+        <v>456.2408785036204</v>
       </c>
       <c r="Y10" t="n">
-        <v>1025.819828678057</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1866.32172003292</v>
+        <v>1535.258832689353</v>
       </c>
       <c r="C11" t="n">
-        <v>1497.359203092509</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1139.093504485758</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>753.3052518875138</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>342.3193470979062</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
         <v>101.3471995907325</v>
@@ -5036,55 +5036,55 @@
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420305</v>
+        <v>704.5155104420332</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.226377687104</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882244</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455659</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971439</v>
+        <v>3622.786021971444</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604048</v>
+        <v>3369.295305604051</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.295305604048</v>
+        <v>3038.232418260481</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.526650333934</v>
+        <v>2685.463762990366</v>
       </c>
       <c r="X11" t="n">
-        <v>2643.060892072854</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.921560097042</v>
+        <v>1921.858672753475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246918</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831292</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104386</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754328</v>
+        <v>1413.76371390885</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105395</v>
+        <v>1955.072021259917</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971143</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826862</v>
+        <v>203.8650582458557</v>
       </c>
       <c r="C13" t="n">
-        <v>114.7351798547793</v>
+        <v>203.8650582458556</v>
       </c>
       <c r="D13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="E13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="F13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="G13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
         <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888919</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906987</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457032</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897321</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691434</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544734</v>
+        <v>834.2956531176428</v>
       </c>
       <c r="X13" t="n">
-        <v>686.112406756456</v>
+        <v>606.3061022196255</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129259</v>
+        <v>385.5135230760953</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874797</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,28 +5343,28 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635722</v>
+        <v>561.9183350635712</v>
       </c>
       <c r="C16" t="n">
-        <v>537.7313037187198</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="D16" t="n">
-        <v>387.614664306384</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239909</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608056</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X16" t="n">
-        <v>964.359379037342</v>
+        <v>964.3593790373411</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938119</v>
+        <v>743.566799893811</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327642</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048573</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>114.9565346495162</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630038</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277351</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453419</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453419</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6008,10 +6008,10 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327647</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048579</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925221</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E25" t="n">
-        <v>296.788222910129</v>
+        <v>113.9333885650333</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122187</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630046</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851677</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572608</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449251</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154074</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711973</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2109.278718126011</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1820.203491470209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1048.112282329344</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,7 +6716,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400741</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121672</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232839</v>
+        <v>194.8007783998315</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408908</v>
+        <v>194.8007783998315</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924456</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718569</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135314</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138436</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230634</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230634</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,19 +7333,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7360,22 +7360,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098228</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819158</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695801</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871869</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892766</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400714</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400714</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400714</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243802893</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>171.8672651815475</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>112.7536005244256</v>
+        <v>24.51502091726023</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.3016600672238</v>
+        <v>160.2282399261797</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>110.0033420516652</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067401</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516645</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.29471284622</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459332</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>92.12028678808224</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462243</v>
+        <v>140.294712846227</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>130.4994612393472</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459025</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>114.1584408891681</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.4404537023744</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.11969353038546</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459344</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891666</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228694</v>
       </c>
       <c r="F46" t="n">
-        <v>35.4033308462455</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913872.6799700266</v>
+        <v>913872.6799700272</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>994261.7116268099</v>
+        <v>994261.7116268094</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>999733.5759904794</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>999733.5759904796</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>999733.5759904794</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>999733.5759904793</v>
+        <v>999733.5759904794</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>999733.5759904794</v>
+        <v>999733.5759904796</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>999733.5759904796</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="16">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.437971345</v>
+        <v>386954.4379713451</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.8801099659</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="O2" t="n">
         <v>423751.9648372532</v>
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185154</v>
+        <v>143114.1392185164</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051385</v>
+        <v>166521.347105137</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557952</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115319</v>
+        <v>37377.32855115364</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848931</v>
+        <v>43782.40655848876</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224857</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="E4" t="n">
         <v>11677.85525949978</v>
@@ -26436,7 +26436,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26448,7 +26448,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214715</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1096595.768098394</v>
       </c>
       <c r="C6" t="n">
-        <v>232148.9776291984</v>
+        <v>232148.9776291986</v>
       </c>
       <c r="D6" t="n">
-        <v>232148.9776291983</v>
+        <v>232148.9776291979</v>
       </c>
       <c r="E6" t="n">
-        <v>146068.7213311828</v>
+        <v>145858.7570873369</v>
       </c>
       <c r="F6" t="n">
-        <v>142972.9608954087</v>
+        <v>142927.0558998444</v>
       </c>
       <c r="G6" t="n">
-        <v>299685.2225609614</v>
+        <v>299650.484635525</v>
       </c>
       <c r="H6" t="n">
-        <v>310852.4587965403</v>
+        <v>310817.7208711046</v>
       </c>
       <c r="I6" t="n">
-        <v>310852.4587965402</v>
+        <v>310817.7208711047</v>
       </c>
       <c r="J6" t="n">
-        <v>93321.25639926286</v>
+        <v>93286.51847382721</v>
       </c>
       <c r="K6" t="n">
-        <v>310852.4587965401</v>
+        <v>310817.7208711046</v>
       </c>
       <c r="L6" t="n">
-        <v>310852.4587965404</v>
+        <v>310817.7208711045</v>
       </c>
       <c r="M6" t="n">
-        <v>273475.130245387</v>
+        <v>273440.392319951</v>
       </c>
       <c r="N6" t="n">
-        <v>267070.0522380509</v>
+        <v>267035.3143126157</v>
       </c>
       <c r="O6" t="n">
-        <v>307829.1608193156</v>
+        <v>307794.4228938797</v>
       </c>
       <c r="P6" t="n">
-        <v>310852.4587965403</v>
+        <v>310817.7208711046</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26747,7 @@
         <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086474</v>
+        <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,31 +26963,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012574</v>
+        <v>122.3935669012581</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218302</v>
+        <v>145.870781221829</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063562</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063564</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173572</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063562</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>358.1123434383887</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>322.505160964819</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>229.9392461708174</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797458194</v>
       </c>
       <c r="H5" t="n">
-        <v>188.2587987957963</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862208</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>56.57433469862204</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.6682391049319</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228861</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.1136856511893</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>3.556976973656475</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.426059932593491e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29448,7 +29448,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.850638409455617e-13</v>
+        <v>-1.293398114015808e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29961,7 +29961,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>3.084969465812697e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30642,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256413</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>660.6327957845331</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>179.5642660017227</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6381359012568</v>
+        <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457672</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>518.4987618625148</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>36.96802155727825</v>
       </c>
       <c r="P12" t="n">
-        <v>251.6637284869265</v>
+        <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>20.54758114884936</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811963</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
